--- a/Stocks/CAPF.xlsx
+++ b/Stocks/CAPF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>760.4</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>773.27935736757081</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>756.03931144193859</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>74.841393609988074</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>8.7000000000000455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>23.950000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.36325678496868596</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>742.84533111295048</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>17.045834170935564</v>
       </c>
       <c r="Y67">
         <v>14.820667375551889</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>721.85</v>
+      </c>
+      <c r="D83">
+        <v>728.85</v>
+      </c>
+      <c r="E83">
+        <v>716.55</v>
+      </c>
+      <c r="F83">
+        <v>723</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>722.80000000000007</v>
+      </c>
+      <c r="H83">
+        <v>717.8315106103114</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>732.16112433157173</v>
+      </c>
+      <c r="K83">
+        <v>710.54679317848513</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>51.247680568257756</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.4500000000000455</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>12.300000000000068</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.52439024390243982</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>725.49922552710916</v>
+      </c>
+      <c r="W83">
+        <v>732.98863300429787</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-7.4894074771887063</v>
+      </c>
+      <c r="Y83">
+        <v>-2.8373005178465496</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>725</v>
+      </c>
+      <c r="D84">
+        <v>725</v>
+      </c>
+      <c r="E84">
+        <v>701.1</v>
+      </c>
+      <c r="F84">
+        <v>702.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>709.5333333333333</v>
+      </c>
+      <c r="H84">
+        <v>713.68242197182235</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>730.56976336900027</v>
+      </c>
+      <c r="K84">
+        <v>708.44750580548839</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>36.142679167711037</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>23.899999999999977</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>5.8577405857739691E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>721.96088313832308</v>
+      </c>
+      <c r="W84">
+        <v>730.73021574472023</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-8.7693326063971426</v>
+      </c>
+      <c r="Y84">
+        <v>-4.0237069355566684</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>708.75</v>
+      </c>
+      <c r="D85">
+        <v>732.9</v>
+      </c>
+      <c r="E85">
+        <v>708.65</v>
+      </c>
+      <c r="F85">
+        <v>723</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>721.51666666666677</v>
+      </c>
+      <c r="H85">
+        <v>717.59954431924461</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>731.0875937314446</v>
+      </c>
+      <c r="K85">
+        <v>708.49250451537989</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>53.335385671143108</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>14.350000000000023</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>24.25</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.59175257731958852</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>722.12074727088873</v>
+      </c>
+      <c r="W85">
+        <v>730.15760717103728</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-8.0368599001485563</v>
+      </c>
+      <c r="Y85">
+        <v>-4.8263375284750456</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>726.8</v>
+      </c>
+      <c r="D86">
+        <v>734</v>
+      </c>
+      <c r="E86">
+        <v>718</v>
+      </c>
+      <c r="F86">
+        <v>724</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>725.33333333333337</v>
+      </c>
+      <c r="H86">
+        <v>721.46643882628905</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>731.73479512445692</v>
+      </c>
+      <c r="K86">
+        <v>710.60528128973988</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>54.089097852890752</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.375</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>722.40986307536741</v>
+      </c>
+      <c r="W86">
+        <v>729.70148812133084</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.2916250459634284</v>
+      </c>
+      <c r="Y86">
+        <v>-5.3193950319727223</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>724.25</v>
+      </c>
+      <c r="D87">
+        <v>734.9</v>
+      </c>
+      <c r="E87">
+        <v>724.25</v>
+      </c>
+      <c r="F87">
+        <v>728.25</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>729.13333333333333</v>
+      </c>
+      <c r="H87">
+        <v>725.29988607981113</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>732.43817398568876</v>
+      </c>
+      <c r="K87">
+        <v>713.63744100313102</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>57.717207923054318</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>10.649999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.37558685446009471</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>723.30834567915701</v>
+      </c>
+      <c r="W87">
+        <v>729.59397048271376</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-6.2856248035567432</v>
+      </c>
+      <c r="Y87">
+        <v>-5.5126409862895267</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>729.9</v>
+      </c>
+      <c r="D88">
+        <v>744</v>
+      </c>
+      <c r="E88">
+        <v>717.25</v>
+      </c>
+      <c r="F88">
+        <v>727.05</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>729.43333333333339</v>
+      </c>
+      <c r="H88">
+        <v>727.36660970657226</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>735.00746865553572</v>
+      </c>
+      <c r="K88">
+        <v>714.44023189132417</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>56.151087586421575</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>26.75</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.36635514018691417</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>723.88398480544049</v>
+      </c>
+      <c r="W88">
+        <v>729.40552822473501</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-5.5215434192945168</v>
+      </c>
+      <c r="Y88">
+        <v>-5.5144214728905245</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>730.1</v>
+      </c>
+      <c r="D89">
+        <v>747</v>
+      </c>
+      <c r="E89">
+        <v>729.1</v>
+      </c>
+      <c r="F89">
+        <v>741.55</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>739.21666666666658</v>
+      </c>
+      <c r="H89">
+        <v>733.29163818661937</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>737.67247562097225</v>
+      </c>
+      <c r="K89">
+        <v>717.69795813769656</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>68.897997912226714</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>12.449999999999932</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>17.899999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.69553072625698031</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>726.6018332969112</v>
+      </c>
+      <c r="W89">
+        <v>730.30511872660645</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-3.7032854296952564</v>
+      </c>
+      <c r="Y89">
+        <v>-5.1521942642514711</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>739</v>
+      </c>
+      <c r="D90">
+        <v>777.45</v>
+      </c>
+      <c r="E90">
+        <v>734.1</v>
+      </c>
+      <c r="F90">
+        <v>769.9</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>760.48333333333346</v>
+      </c>
+      <c r="H90">
+        <v>746.88748575997647</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>746.51192548297843</v>
+      </c>
+      <c r="K90">
+        <v>721.3428563293196</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>81.816613034708084</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>35.799999999999955</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>43.350000000000023</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.82583621683967556</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>733.26308971277103</v>
+      </c>
+      <c r="W90">
+        <v>733.23807289500598</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>2.5016817765049382E-2</v>
+      </c>
+      <c r="Y90">
+        <v>-4.1167520478481672</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>739.05000000000007</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>750.65000000000009</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>755.80000000000007</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>760.90000000000009</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>775.7</v>
+      </c>
+      <c r="D91">
+        <v>779.7</v>
+      </c>
+      <c r="E91">
+        <v>763.65</v>
+      </c>
+      <c r="F91">
+        <v>768.3</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>770.54999999999984</v>
+      </c>
+      <c r="H91">
+        <v>758.71874287998821</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>753.8870531534277</v>
+      </c>
+      <c r="K91">
+        <v>730.74444381169303</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>79.487433212948815</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>4.6499999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>16.050000000000068</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.28971962616822167</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>738.65338360311398</v>
+      </c>
+      <c r="W91">
+        <v>735.8352526805611</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>2.8181309225528821</v>
+      </c>
+      <c r="Y91">
+        <v>-2.7297754537679575</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>771.8</v>
+      </c>
+      <c r="D92">
+        <v>778.5</v>
+      </c>
+      <c r="E92">
+        <v>763.05</v>
+      </c>
+      <c r="F92">
+        <v>770</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>770.51666666666677</v>
+      </c>
+      <c r="H92">
+        <v>764.61770477332743</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>759.35659689711042</v>
+      </c>
+      <c r="K92">
+        <v>737.92345629798342</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>80.234746762892556</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>6.9500000000000455</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>15.450000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.44983818770226697</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>743.47593997186573</v>
+      </c>
+      <c r="W92">
+        <v>738.36597470422328</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>5.1099652676424512</v>
+      </c>
+      <c r="Y92">
+        <v>-1.1618273094858758</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>774.95</v>
+      </c>
+      <c r="D93">
+        <v>784.95</v>
+      </c>
+      <c r="E93">
+        <v>767.7</v>
+      </c>
+      <c r="F93">
+        <v>769.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>774.20000000000016</v>
+      </c>
+      <c r="H93">
+        <v>769.40885238666374</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>765.04401980886371</v>
+      </c>
+      <c r="K93">
+        <v>744.54046600954268</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>80.127423190273149</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>17.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>747.54887228388634</v>
+      </c>
+      <c r="W93">
+        <v>740.70553213354003</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>6.8433401503463074</v>
+      </c>
+      <c r="Y93">
+        <v>0.43920618248056087</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>773.6</v>
+      </c>
+      <c r="D94">
+        <v>812.95</v>
+      </c>
+      <c r="E94">
+        <v>765.5</v>
+      </c>
+      <c r="F94">
+        <v>806.8</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>795.08333333333337</v>
+      </c>
+      <c r="H94">
+        <v>782.2460928599985</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>775.68979318467177</v>
+      </c>
+      <c r="K94">
+        <v>749.19814022964431</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>91.097640877895472</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>41.299999999999955</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>47.450000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.87038988408851248</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>756.66443039405772</v>
+      </c>
+      <c r="W94">
+        <v>745.60141864216666</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>11.063011751891054</v>
+      </c>
+      <c r="Y94">
+        <v>2.5639672963626596</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>770.90000000000009</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>783.65000000000009</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>789.25</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>794.80000000000007</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>823</v>
+      </c>
+      <c r="D95">
+        <v>839</v>
+      </c>
+      <c r="E95">
+        <v>787.3</v>
+      </c>
+      <c r="F95">
+        <v>798.1</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>808.13333333333333</v>
+      </c>
+      <c r="H95">
+        <v>795.18971309666586</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>789.75872803252253</v>
+      </c>
+      <c r="K95">
+        <v>757.66522017861223</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>78.335805243914152</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>10.800000000000068</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>51.700000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.20889748549323131</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>763.0391334103565</v>
+      </c>
+      <c r="W95">
+        <v>749.49020244645067</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>13.548930963905832</v>
+      </c>
+      <c r="Y95">
+        <v>4.7609600298712937</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>802</v>
+      </c>
+      <c r="D96">
+        <v>811</v>
+      </c>
+      <c r="E96">
+        <v>788</v>
+      </c>
+      <c r="F96">
+        <v>801.1</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>800.0333333333333</v>
+      </c>
+      <c r="H96">
+        <v>797.61152321499958</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>794.479010691962</v>
+      </c>
+      <c r="K96">
+        <v>764.40628236114287</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>79.56947135780527</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>13.100000000000023</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.56956521739130539</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>768.89465134722468</v>
+      </c>
+      <c r="W96">
+        <v>753.3131504133803</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>15.581500933844382</v>
+      </c>
+      <c r="Y96">
+        <v>6.9250682106659109</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>795</v>
+      </c>
+      <c r="D97">
+        <v>814.4</v>
+      </c>
+      <c r="E97">
+        <v>790</v>
+      </c>
+      <c r="F97">
+        <v>800.7</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>801.70000000000016</v>
+      </c>
+      <c r="H97">
+        <v>799.65576160749993</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>798.90589720485934</v>
+      </c>
+      <c r="K97">
+        <v>770.09377516977781</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>78.821391550696234</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>10.700000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>24.399999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.43852459016393669</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>773.78778190919013</v>
+      </c>
+      <c r="W97">
+        <v>756.82328741979654</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>16.964494489393587</v>
+      </c>
+      <c r="Y97">
+        <v>8.9329534664114458</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>809.7</v>
+      </c>
+      <c r="D98">
+        <v>821.5</v>
+      </c>
+      <c r="E98">
+        <v>808.9</v>
+      </c>
+      <c r="F98">
+        <v>814.35</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>814.91666666666663</v>
+      </c>
+      <c r="H98">
+        <v>807.28621413708333</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>803.92680893711281</v>
+      </c>
+      <c r="K98">
+        <v>778.71738068760499</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>84.883616361852972</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>5.4500000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>12.600000000000023</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.43253968253968539</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>780.0281231539301</v>
+      </c>
+      <c r="W98">
+        <v>761.08452538870051</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>18.943597765229583</v>
+      </c>
+      <c r="Y98">
+        <v>10.935082326175074</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>817</v>
+      </c>
+      <c r="D99">
+        <v>831.2</v>
+      </c>
+      <c r="E99">
+        <v>814.35</v>
+      </c>
+      <c r="F99">
+        <v>825</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>823.51666666666677</v>
+      </c>
+      <c r="H99">
+        <v>815.40144040187511</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>809.98751806219889</v>
+      </c>
+      <c r="K99">
+        <v>786.63574053480386</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>88.182619954614154</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>10.649999999999977</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>16.850000000000023</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.63204747774480496</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>786.94687343794089</v>
+      </c>
+      <c r="W99">
+        <v>765.81900498953746</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>21.127868448403433</v>
+      </c>
+      <c r="Y99">
+        <v>12.973639550620746</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>832</v>
+      </c>
+      <c r="D100">
+        <v>832</v>
+      </c>
+      <c r="E100">
+        <v>812.5</v>
+      </c>
+      <c r="F100">
+        <v>821</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>821.83333333333337</v>
+      </c>
+      <c r="H100">
+        <v>818.61738686760418</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>814.87918071504362</v>
+      </c>
+      <c r="K100">
+        <v>792.38335374929193</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>79.987121926104933</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>19.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>792.18581598594994</v>
+      </c>
+      <c r="W100">
+        <v>769.90648610142352</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>22.279329884526419</v>
+      </c>
+      <c r="Y100">
+        <v>14.83477761740188</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>825</v>
+      </c>
+      <c r="D101">
+        <v>830.85</v>
+      </c>
+      <c r="E101">
+        <v>803.25</v>
+      </c>
+      <c r="F101">
+        <v>817</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>817.0333333333333</v>
+      </c>
+      <c r="H101">
+        <v>817.82536010046874</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>818.42825166725618</v>
+      </c>
+      <c r="K101">
+        <v>794.79816402722702</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>71.661988196700747</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>13.75</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>27.600000000000023</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.49818840579710105</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>796.00338275734225</v>
+      </c>
+      <c r="W101">
+        <v>773.39489453835506</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>22.608488218987191</v>
+      </c>
+      <c r="Y101">
+        <v>16.389519737718942</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>810</v>
+      </c>
+      <c r="D102">
+        <v>813.95</v>
+      </c>
+      <c r="E102">
+        <v>772.7</v>
+      </c>
+      <c r="F102">
+        <v>779</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>788.55000000000007</v>
+      </c>
+      <c r="H102">
+        <v>803.18768005023435</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>817.43308463008816</v>
+      </c>
+      <c r="K102">
+        <v>789.88746091006544</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>32.049748749333823</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>6.2999999999999545</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>41.25</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.15272727272727163</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>793.38747771775115</v>
+      </c>
+      <c r="W102">
+        <v>773.81008753551396</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>19.577390182237195</v>
+      </c>
+      <c r="Y102">
+        <v>17.027093826622593</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>776.9</v>
+      </c>
+      <c r="D103">
+        <v>779</v>
+      </c>
+      <c r="E103">
+        <v>728.2</v>
+      </c>
+      <c r="F103">
+        <v>748.05</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>751.75</v>
+      </c>
+      <c r="H103">
+        <v>777.46884002511717</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>808.89239915673522</v>
+      </c>
+      <c r="K103">
+        <v>776.17913626338429</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>20.508351923143103</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>19.849999999999909</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>50.799999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.39074803149606158</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>786.41248114578946</v>
+      </c>
+      <c r="W103">
+        <v>771.90193290325362</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>14.510548242535833</v>
+      </c>
+      <c r="Y103">
+        <v>16.523784709805241</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>749</v>
+      </c>
+      <c r="D104">
+        <v>762.5</v>
+      </c>
+      <c r="E104">
+        <v>733.8</v>
+      </c>
+      <c r="F104">
+        <v>744</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>746.76666666666677</v>
+      </c>
+      <c r="H104">
+        <v>762.11775334589197</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>798.58297712190517</v>
+      </c>
+      <c r="K104">
+        <v>766.76155042707671</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>19.367543628692378</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>10.200000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>28.700000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.35540069686411252</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>779.88748404643718</v>
+      </c>
+      <c r="W104">
+        <v>769.83512305856812</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>10.052360987869065</v>
+      </c>
+      <c r="Y104">
+        <v>15.229499965418006</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>755</v>
+      </c>
+      <c r="D105">
+        <v>757</v>
+      </c>
+      <c r="E105">
+        <v>712</v>
+      </c>
+      <c r="F105">
+        <v>720.1</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>729.69999999999993</v>
+      </c>
+      <c r="H105">
+        <v>745.90887667294601</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>789.34231553925963</v>
+      </c>
+      <c r="K105">
+        <v>754.59231699883742</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>13.732618455057954</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>8.1000000000000227</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>45</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.18000000000000049</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>770.68940957775453</v>
+      </c>
+      <c r="W105">
+        <v>766.15103986904455</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>4.538369708709979</v>
+      </c>
+      <c r="Y105">
+        <v>13.0912739140764</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>751.85</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>739.80000000000007</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>734.5</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>729.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>722.6</v>
+      </c>
+      <c r="D106">
+        <v>731.6</v>
+      </c>
+      <c r="E106">
+        <v>715.5</v>
+      </c>
+      <c r="F106">
+        <v>719.8</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>722.29999999999984</v>
+      </c>
+      <c r="H106">
+        <v>734.10443833647287</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>776.51068986386861</v>
+      </c>
+      <c r="K106">
+        <v>745.90513544354019</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>13.670213042292131</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>16.100000000000023</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.26708074534161169</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>762.86026964271537</v>
+      </c>
+      <c r="W106">
+        <v>762.71762950837456</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>0.1426401343408088</v>
+      </c>
+      <c r="Y106">
+        <v>10.501547158129281</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>727</v>
+      </c>
+      <c r="D107">
+        <v>743.9</v>
+      </c>
+      <c r="E107">
+        <v>726</v>
+      </c>
+      <c r="F107">
+        <v>735</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>734.9666666666667</v>
+      </c>
+      <c r="H107">
+        <v>734.53555250156978</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>769.26386989412003</v>
+      </c>
+      <c r="K107">
+        <v>741.48177201164242</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>32.963719403813286</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.899999999999977</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.50279329608938617</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>758.57407431306683</v>
+      </c>
+      <c r="W107">
+        <v>760.66447176701342</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-2.0903974539465935</v>
+      </c>
+      <c r="Y107">
+        <v>7.9831582357141055</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
